--- a/rpa_basic/1_excel/sample_korean.xlsx
+++ b/rpa_basic/1_excel/sample_korean.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>국어</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -437,125 +437,106 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
+      <c r="B3" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>수학</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>71</v>
-      </c>
-      <c r="D5" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>92</v>
-      </c>
-      <c r="D6" t="n">
-        <v>83</v>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>39</v>
-      </c>
-      <c r="D7" t="n">
-        <v>23</v>
+      <c r="B7" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
-        <v>94</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8</v>
+      <c r="B8" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
-        <v>87</v>
-      </c>
-      <c r="D9" t="n">
-        <v>94</v>
+      <c r="B9" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" t="n">
-        <v>93</v>
-      </c>
-      <c r="D10" t="n">
-        <v>14</v>
+      <c r="B10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="n">
-        <v>12</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="B11" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="12">
-      <c r="C12" t="n">
-        <v>68</v>
-      </c>
-      <c r="D12" t="n">
+    <row r="14">
+      <c r="B14" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="13">
-      <c r="C13" t="n">
-        <v>28</v>
-      </c>
-      <c r="D13" t="n">
+    <row r="15">
+      <c r="B15" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="14">
-      <c r="C14" t="n">
-        <v>78</v>
-      </c>
-      <c r="D14" t="n">
+    <row r="16">
+      <c r="B16" t="n">
         <v>94</v>
       </c>
     </row>
